--- a/2ndTestopenpyxl.xlsx
+++ b/2ndTestopenpyxl.xlsx
@@ -21,13 +21,18 @@
   <numFmts count="1">
     <numFmt formatCode="m/d/yy\ h:mm;@" numFmtId="164"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <sz val="14"/>
     </font>
   </fonts>
   <fills count="2">
@@ -50,11 +55,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -394,17 +400,19 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="1" width="21.28515625"/>
     <col customWidth="1" max="2" min="2" style="1" width="11.42578125"/>
+    <col customWidth="1" max="4" min="4" style="1" width="34"/>
+    <col customWidth="1" max="5" min="5" style="1" width="43"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row customHeight="1" ht="71" r="1" s="1">
       <c r="A1" s="3" t="n">
         <v>43125.35625</v>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>Apple</t>
         </is>
@@ -518,7 +526,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="11">
+    <row customHeight="1" ht="77" r="11" s="1">
       <c r="C11" t="n">
         <v>43</v>
       </c>

--- a/2ndTestopenpyxl.xlsx
+++ b/2ndTestopenpyxl.xlsx
@@ -3,13 +3,15 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11160" windowWidth="20730" xWindow="-120" yWindow="-120"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="My wb sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="My 2nd sheet" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="My 3rd sheet" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="My 4th sheet" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="122211" fullCalcOnLoad="1"/>
@@ -19,7 +21,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="m/d/yy\ h:mm;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -53,19 +55,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -400,15 +402,15 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="21.28515625"/>
-    <col customWidth="1" max="2" min="2" style="1" width="11.42578125"/>
-    <col customWidth="1" max="4" min="4" style="1" width="34"/>
-    <col customWidth="1" max="5" min="5" style="1" width="43"/>
+    <col width="21.28515625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="11.42578125" customWidth="1" style="1" min="2" max="2"/>
+    <col width="34" customWidth="1" style="1" min="4" max="4"/>
+    <col width="43" customWidth="1" style="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="71" r="1" s="1">
+    <row r="1" ht="71" customHeight="1" s="1">
       <c r="A1" s="3" t="n">
         <v>43125.35625</v>
       </c>
@@ -526,14 +528,14 @@
         <v>177</v>
       </c>
     </row>
-    <row customHeight="1" ht="77" r="11" s="1">
+    <row r="11" ht="77" customHeight="1" s="1">
       <c r="C11" t="n">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="1200" orientation="portrait" verticalDpi="1200"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
 </worksheet>
 </file>
 
@@ -551,11 +553,29 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -705,11 +725,11 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -723,6 +743,740 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B110"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B1" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="n">
+        <v>5849</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>771</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="n">
+        <v>9616</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>552</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="n">
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1085</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3464</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="n">
+        <v>8010</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>669</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4482</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="n">
+        <v>3948</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>896</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="n">
+        <v>4810</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>840</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3379</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="n">
+        <v>9169</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>959</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5392</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="n">
+        <v>8357</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>618</v>
+      </c>
+      <c r="B17" t="n">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="n">
+        <v>8169</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="n">
+        <v>8062</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1091</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4744</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="n">
+        <v>7235</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>326</v>
+      </c>
+      <c r="B23" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="n">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>369</v>
+      </c>
+      <c r="B25" t="n">
+        <v>7642</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="n">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>810</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5576</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="n">
+        <v>9421</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>844</v>
+      </c>
+      <c r="B29" t="n">
+        <v>8218</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="n">
+        <v>5063</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>767</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4581</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="n">
+        <v>8009</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>905</v>
+      </c>
+      <c r="B33" t="n">
+        <v>7542</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="n">
+        <v>8686</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>638</v>
+      </c>
+      <c r="B35" t="n">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="n">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>899</v>
+      </c>
+      <c r="B37" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="n">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>45</v>
+      </c>
+      <c r="B39" t="n">
+        <v>9372</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="n">
+        <v>7896</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>4</v>
+      </c>
+      <c r="B41" t="n">
+        <v>7138</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="n">
+        <v>6044</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>764</v>
+      </c>
+      <c r="B43" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="n">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>396</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3583</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="n">
+        <v>8191</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>94</v>
+      </c>
+      <c r="B47" t="n">
+        <v>6502</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="n">
+        <v>8442</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>796</v>
+      </c>
+      <c r="B49" t="n">
+        <v>4846</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="n">
+        <v>8643</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>265</v>
+      </c>
+      <c r="B51" t="n">
+        <v>5623</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="n">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>515</v>
+      </c>
+      <c r="B53" t="n">
+        <v>3127</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="n">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>496</v>
+      </c>
+      <c r="B55" t="n">
+        <v>3982</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="n">
+        <v>4581</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>561</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="n">
+        <v>6446</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>106</v>
+      </c>
+      <c r="B59" t="n">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="n">
+        <v>4759</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>437</v>
+      </c>
+      <c r="B61" t="n">
+        <v>9367</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="n">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>838</v>
+      </c>
+      <c r="B63" t="n">
+        <v>5910</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="n">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>421</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="n">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>499</v>
+      </c>
+      <c r="B67" t="n">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="n">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1048</v>
+      </c>
+      <c r="B69" t="n">
+        <v>9821</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" t="n">
+        <v>4785</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>369</v>
+      </c>
+      <c r="B71" t="n">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="n">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>691</v>
+      </c>
+      <c r="B73" t="n">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="n">
+        <v>7562</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>234</v>
+      </c>
+      <c r="B75" t="n">
+        <v>7699</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" t="n">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>126</v>
+      </c>
+      <c r="B77" t="n">
+        <v>4349</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>363</v>
+      </c>
+      <c r="B79" t="n">
+        <v>5549</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" t="n">
+        <v>5206</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>994</v>
+      </c>
+      <c r="B81" t="n">
+        <v>7393</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" t="n">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>270</v>
+      </c>
+      <c r="B83" t="n">
+        <v>5167</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" t="n">
+        <v>4742</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>337</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" t="n">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>903</v>
+      </c>
+      <c r="B87" t="n">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" t="n">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>275</v>
+      </c>
+      <c r="B89" t="n">
+        <v>6321</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" t="n">
+        <v>4085</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>307</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" t="n">
+        <v>5982</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>68</v>
+      </c>
+      <c r="B93" t="n">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" t="n">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>900</v>
+      </c>
+      <c r="B95" t="n">
+        <v>7713</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" t="n">
+        <v>5150</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1107</v>
+      </c>
+      <c r="B97" t="n">
+        <v>3493</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" t="n">
+        <v>6153</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>634</v>
+      </c>
+      <c r="B99" t="n">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" t="n">
+        <v>6310</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>695</v>
+      </c>
+      <c r="B101" t="n">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" t="n">
+        <v>5503</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>845</v>
+      </c>
+      <c r="B103" t="n">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" t="n">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B105" t="n">
+        <v>7801</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" t="n">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>341</v>
+      </c>
+      <c r="B107" t="n">
+        <v>4858</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" t="n">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>117</v>
+      </c>
+      <c r="B109" t="n">
+        <v>7606</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" t="n">
+        <v>4658</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>